--- a/template/plantilla.xlsx
+++ b/template/plantilla.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Valdivia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\sistema_gpt\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,40 +24,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Apellido Paterno</t>
-  </si>
-  <si>
-    <t>Apellido Materno</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Valdivia</t>
-  </si>
-  <si>
-    <t>Quiroz</t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>5218180187318</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>David Fernando Valdivia Quiroz</t>
+  </si>
+  <si>
+    <t>web.com</t>
+  </si>
+  <si>
+    <t>email@gmail</t>
+  </si>
+  <si>
+    <t>Address test 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,14 +94,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,65 +383,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>